--- a/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A05E73-1E92-49F0-8FE6-408FE9D57F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F7E1A6F-2AAE-4EFD-8181-CC70945AC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B13F3E2-3C4E-4A93-A581-811390B3ADDE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4550A172-C6F0-42C5-9CCC-6490884613A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="732">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,2161 +101,2140 @@
     <t>1,57%</t>
   </si>
   <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>95,7%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84255B16-53CA-404F-B95B-70201A66A668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10CE81D-4E28-4DB8-A57B-A8A76BE1260D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3921,13 +3900,13 @@
         <v>2545</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3936,13 +3915,13 @@
         <v>3205</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3951,13 +3930,13 @@
         <v>5750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3951,13 @@
         <v>25934</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H27" s="7">
         <v>35</v>
@@ -3987,13 +3966,13 @@
         <v>36900</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -4002,13 +3981,13 @@
         <v>62833</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4043,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4082,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4097,7 +4076,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4112,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4148,7 +4127,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4163,7 +4142,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4157,13 @@
         <v>1892</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4193,13 +4172,13 @@
         <v>4640</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4208,13 +4187,13 @@
         <v>6532</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,10 +4208,10 @@
         <v>45304</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -4244,13 +4223,13 @@
         <v>65669</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -4259,13 +4238,13 @@
         <v>110974</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4300,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4333,13 +4312,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4348,13 +4327,13 @@
         <v>897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4363,13 +4342,13 @@
         <v>1735</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4414,13 +4393,13 @@
         <v>1124</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4429,13 @@
         <v>1933</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4465,13 +4444,13 @@
         <v>1933</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,10 +4465,10 @@
         <v>105090</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -4501,13 +4480,13 @@
         <v>113168</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M37" s="7">
         <v>220</v>
@@ -4516,13 +4495,13 @@
         <v>218257</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4557,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4596,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -4605,13 +4584,13 @@
         <v>1201</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -4620,13 +4599,13 @@
         <v>1201</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4662,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4677,7 +4656,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4671,13 @@
         <v>3125</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -4707,13 +4686,13 @@
         <v>6912</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -4722,13 +4701,13 @@
         <v>10037</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4722,13 @@
         <v>108768</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="H42" s="7">
         <v>137</v>
@@ -4758,13 +4737,13 @@
         <v>145112</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -4773,13 +4752,13 @@
         <v>253880</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4826,13 @@
         <v>838</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -4865,10 +4844,10 @@
         <v>77</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4877,13 +4856,13 @@
         <v>5175</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4877,13 @@
         <v>1699</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4913,10 +4892,10 @@
         <v>5332</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>62</v>
@@ -4928,13 +4907,13 @@
         <v>7030</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4928,13 @@
         <v>9359</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
@@ -4964,13 +4943,13 @@
         <v>24115</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="M46" s="7">
         <v>32</v>
@@ -4979,13 +4958,13 @@
         <v>33474</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,10 +4979,10 @@
         <v>490570</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>203</v>
@@ -5036,7 +5015,7 @@
         <v>208</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5071,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5116,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7557B3-A1E2-4928-AE87-A8D179BBBA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E370D03B-4F25-45CC-999E-43BA3124D451}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5133,7 +5112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,39 +5217,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,39 +5262,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,39 +5307,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,39 +5352,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,39 +5397,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5446,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5482,13 +5461,13 @@
         <v>2437</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5497,10 +5476,10 @@
         <v>4567</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>218</v>
@@ -5584,13 +5563,13 @@
         <v>3283</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5599,13 +5578,13 @@
         <v>3283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,10 +5599,10 @@
         <v>77073</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -5635,13 +5614,13 @@
         <v>93194</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5650,13 +5629,13 @@
         <v>170266</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5703,13 @@
         <v>2988</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5739,13 +5718,13 @@
         <v>4395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5754,13 +5733,13 @@
         <v>7382</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5754,13 @@
         <v>1027</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -5796,7 +5775,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -5805,10 +5784,10 @@
         <v>3189</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>250</v>
@@ -5844,7 +5823,7 @@
         <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>254</v>
@@ -6017,7 +5996,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,10 +6029,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6062,13 +6041,13 @@
         <v>3347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6062,13 @@
         <v>4154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6098,13 +6077,13 @@
         <v>5492</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -6113,13 +6092,13 @@
         <v>9647</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6113,13 @@
         <v>104154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -6149,13 +6128,13 @@
         <v>125629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -6164,13 +6143,13 @@
         <v>229784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,7 +6352,7 @@
         <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>300</v>
@@ -6483,7 +6462,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6552,7 +6531,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6567,7 +6546,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6576,13 +6555,13 @@
         <v>3244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6576,13 @@
         <v>1075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6612,13 +6591,13 @@
         <v>5263</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -6627,13 +6606,13 @@
         <v>6339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,10 +6627,10 @@
         <v>49624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -6663,13 +6642,13 @@
         <v>60606</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M32" s="7">
         <v>108</v>
@@ -6678,13 +6657,13 @@
         <v>110230</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>332</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,7 +6719,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6752,7 +6731,7 @@
         <v>1032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -6767,13 +6746,13 @@
         <v>1080</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6860,7 +6839,7 @@
         <v>343</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -6869,13 +6848,13 @@
         <v>8783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -6884,13 +6863,13 @@
         <v>11762</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>297</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6884,13 @@
         <v>105982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H37" s="7">
         <v>120</v>
@@ -6920,13 +6899,13 @@
         <v>132099</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="M37" s="7">
         <v>215</v>
@@ -6935,13 +6914,13 @@
         <v>238082</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,7 +6976,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7015,7 +6994,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -7024,13 +7003,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7039,13 +7018,13 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7045,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7075,13 +7054,13 @@
         <v>2153</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7090,13 +7069,13 @@
         <v>2153</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>363</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7090,13 @@
         <v>3352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>364</v>
+        <v>103</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -7126,13 +7105,13 @@
         <v>6864</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -7141,13 +7120,13 @@
         <v>10215</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>370</v>
+        <v>149</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7141,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H42" s="7">
         <v>139</v>
@@ -7177,13 +7156,13 @@
         <v>150922</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M42" s="7">
         <v>241</v>
@@ -7192,13 +7171,13 @@
         <v>267224</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7245,13 @@
         <v>7249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7281,13 +7260,13 @@
         <v>14546</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>384</v>
+        <v>72</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -7296,13 +7275,13 @@
         <v>21794</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7296,13 @@
         <v>4353</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>43</v>
+        <v>390</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -7332,13 +7311,13 @@
         <v>14023</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -7347,13 +7326,13 @@
         <v>18376</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>392</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7347,13 @@
         <v>14866</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7383,13 +7362,13 @@
         <v>37005</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -7398,13 +7377,13 @@
         <v>51871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7398,13 @@
         <v>533169</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H47" s="7">
         <v>635</v>
@@ -7434,13 +7413,13 @@
         <v>677401</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M47" s="7">
         <v>1115</v>
@@ -7449,13 +7428,13 @@
         <v>1210570</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,7 +7490,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7535,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1DCD2E-5779-4333-A54A-18F4075872EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849DE16-6CC8-454E-9F37-5E0167BB6D3C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7552,7 +7531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7665,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7680,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7695,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7689,13 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7731,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7746,7 +7725,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7740,13 @@
         <v>791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7776,13 +7755,13 @@
         <v>3454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7791,13 +7770,13 @@
         <v>4246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,10 +7791,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7827,13 +7806,13 @@
         <v>45937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -7842,13 +7821,13 @@
         <v>83240</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7901,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7931,13 +7910,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7952,7 +7931,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8003,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +7997,13 @@
         <v>880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -8033,13 +8012,13 @@
         <v>9143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -8048,13 +8027,13 @@
         <v>10022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>439</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>440</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8090,7 +8069,7 @@
         <v>444</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -8179,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8188,13 +8167,13 @@
         <v>2011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8203,13 +8182,13 @@
         <v>2011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,7 +8209,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -8260,7 +8239,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,10 +8254,10 @@
         <v>2817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>456</v>
@@ -8305,7 +8284,7 @@
         <v>2817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>457</v>
@@ -8436,7 +8415,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8466,7 +8445,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,7 +8460,7 @@
         <v>845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -8496,13 +8475,13 @@
         <v>969</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8511,7 +8490,7 @@
         <v>1813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -8568,7 +8547,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8744,7 +8723,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8753,7 +8732,7 @@
         <v>1187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -8789,13 +8768,13 @@
         <v>799</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8804,7 +8783,7 @@
         <v>2344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
@@ -8822,7 +8801,7 @@
         <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>489</v>
@@ -8855,7 +8834,7 @@
         <v>47001</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>492</v>
@@ -8870,13 +8849,13 @@
         <v>88282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,7 +8911,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -8950,7 +8929,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8959,13 +8938,13 @@
         <v>4907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -8974,13 +8953,13 @@
         <v>4907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>502</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8995,13 +8974,13 @@
         <v>1651</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>108</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9016,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -9025,13 +9004,13 @@
         <v>1651</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9046,13 +9025,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -9061,13 +9040,13 @@
         <v>2575</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -9076,13 +9055,13 @@
         <v>3341</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,10 +9079,10 @@
         <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -9112,13 +9091,13 @@
         <v>59907</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -9127,13 +9106,13 @@
         <v>105935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9189,7 +9168,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9201,13 +9180,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>518</v>
+        <v>129</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9216,13 +9195,13 @@
         <v>1271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>523</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>411</v>
+        <v>524</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9231,13 +9210,13 @@
         <v>3967</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>520</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,10 +9234,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9273,7 +9252,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9282,13 +9261,13 @@
         <v>2808</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>383</v>
+        <v>529</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,13 +9282,13 @@
         <v>890</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -9318,13 +9297,13 @@
         <v>9799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>528</v>
+        <v>103</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -9333,13 +9312,13 @@
         <v>10689</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>415</v>
+        <v>534</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9333,13 @@
         <v>105790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>536</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H37" s="7">
         <v>116</v>
@@ -9369,13 +9348,13 @@
         <v>136555</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9384,13 +9363,13 @@
         <v>242345</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>113</v>
+        <v>543</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>538</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,7 +9425,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9464,7 +9443,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9479,7 +9458,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9494,7 +9473,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,13 +9488,13 @@
         <v>809</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9530,7 +9509,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -9539,13 +9518,13 @@
         <v>809</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,13 +9539,13 @@
         <v>2439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>543</v>
+        <v>223</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9575,13 +9554,13 @@
         <v>4966</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>544</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -9590,13 +9569,13 @@
         <v>7405</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>144</v>
+        <v>549</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>547</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9611,13 +9590,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9626,13 +9605,13 @@
         <v>171331</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>276</v>
@@ -9641,13 +9620,13 @@
         <v>302251</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,13 +9694,13 @@
         <v>2696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>545</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9733,10 +9712,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>560</v>
+        <v>129</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -9748,10 +9727,10 @@
         <v>340</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>562</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,13 +9745,13 @@
         <v>6915</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>429</v>
+        <v>192</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>563</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>412</v>
+        <v>564</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -9784,10 +9763,10 @@
         <v>44</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>564</v>
+        <v>183</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
@@ -9796,13 +9775,13 @@
         <v>11538</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>565</v>
+        <v>162</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>566</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,13 +9796,13 @@
         <v>10210</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H46" s="7">
         <v>26</v>
@@ -9832,13 +9811,13 @@
         <v>32280</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>571</v>
+        <v>109</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -9847,13 +9826,13 @@
         <v>42491</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>412</v>
+        <v>297</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9868,13 +9847,13 @@
         <v>571506</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>576</v>
+        <v>465</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>88</v>
+        <v>572</v>
       </c>
       <c r="H47" s="7">
         <v>618</v>
@@ -9883,13 +9862,13 @@
         <v>731493</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="M47" s="7">
         <v>1223</v>
@@ -9898,13 +9877,13 @@
         <v>1302999</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9960,7 +9939,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -9984,7 +9963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABADB8B-B08B-41BF-A8EC-E7B4D955C737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C75AF60-5ED2-45A0-A60D-2FAE843200DD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10001,7 +9980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10114,7 +10093,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10129,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>566</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10165,7 +10144,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -10174,13 +10153,13 @@
         <v>2234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>523</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -10189,13 +10168,13 @@
         <v>2234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>585</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10216,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -10225,13 +10204,13 @@
         <v>2231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>581</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -10240,13 +10219,13 @@
         <v>2231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>587</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10264,7 +10243,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10276,13 +10255,13 @@
         <v>57755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M7" s="7">
         <v>208</v>
@@ -10291,13 +10270,13 @@
         <v>109675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>592</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10383,10 +10362,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>590</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -10395,13 +10374,13 @@
         <v>4207</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10416,13 +10395,13 @@
         <v>882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>546</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>484</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -10437,7 +10416,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>594</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -10446,13 +10425,13 @@
         <v>2052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>595</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10467,13 +10446,13 @@
         <v>5760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -10482,13 +10461,13 @@
         <v>10465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>602</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -10497,13 +10476,13 @@
         <v>16224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>603</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10518,13 +10497,13 @@
         <v>79672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H12" s="7">
         <v>201</v>
@@ -10533,13 +10512,13 @@
         <v>125515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>607</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -10548,13 +10527,13 @@
         <v>205188</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10622,13 +10601,13 @@
         <v>684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>568</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>613</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -10640,10 +10619,10 @@
         <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -10652,13 +10631,13 @@
         <v>2356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10673,13 +10652,13 @@
         <v>1472</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>619</v>
+        <v>522</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -10688,13 +10667,13 @@
         <v>424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -10703,13 +10682,13 @@
         <v>1896</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>623</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10724,13 +10703,13 @@
         <v>3560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>617</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -10739,13 +10718,13 @@
         <v>7706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>625</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>619</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -10754,13 +10733,13 @@
         <v>11266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>629</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10775,13 +10754,13 @@
         <v>71886</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>632</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>152</v>
@@ -10790,13 +10769,13 @@
         <v>85148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -10805,13 +10784,13 @@
         <v>157034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>638</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10885,7 +10864,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -10894,13 +10873,13 @@
         <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -10909,13 +10888,13 @@
         <v>929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10936,7 +10915,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -10945,13 +10924,13 @@
         <v>904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -10960,13 +10939,13 @@
         <v>904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10987,7 +10966,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -10996,13 +10975,13 @@
         <v>2903</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>615</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>644</v>
+        <v>401</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -11011,13 +10990,13 @@
         <v>2903</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>520</v>
+        <v>184</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>634</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11035,7 +11014,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11047,13 +11026,13 @@
         <v>105720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -11062,13 +11041,13 @@
         <v>184525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11157,7 +11136,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11172,7 +11151,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,13 +11181,13 @@
         <v>499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -11217,13 +11196,13 @@
         <v>499</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11238,13 +11217,13 @@
         <v>1696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -11253,13 +11232,13 @@
         <v>4499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>656</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -11268,13 +11247,13 @@
         <v>6195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11289,13 +11268,13 @@
         <v>36068</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="H27" s="7">
         <v>153</v>
@@ -11304,13 +11283,13 @@
         <v>60107</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>646</v>
+        <v>308</v>
       </c>
       <c r="M27" s="7">
         <v>220</v>
@@ -11319,13 +11298,13 @@
         <v>96173</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>552</v>
+        <v>655</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>235</v>
+        <v>656</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11381,7 +11360,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -11393,13 +11372,13 @@
         <v>1591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -11408,13 +11387,13 @@
         <v>3775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>659</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -11423,13 +11402,13 @@
         <v>5366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>662</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>527</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11450,7 +11429,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11465,7 +11444,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>529</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11480,7 +11459,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11495,13 +11474,13 @@
         <v>1183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>563</v>
+        <v>665</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -11510,13 +11489,13 @@
         <v>4718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -11525,13 +11504,13 @@
         <v>5901</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>93</v>
+        <v>670</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11546,13 +11525,13 @@
         <v>60409</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H32" s="7">
         <v>154</v>
@@ -11561,13 +11540,13 @@
         <v>61361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -11576,13 +11555,13 @@
         <v>121771</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>678</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>577</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11638,7 +11617,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11656,7 +11635,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -11665,13 +11644,13 @@
         <v>1939</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -11680,13 +11659,13 @@
         <v>1939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>505</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11701,13 +11680,13 @@
         <v>761</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>687</v>
+        <v>255</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -11716,13 +11695,13 @@
         <v>2012</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -11731,13 +11710,13 @@
         <v>2772</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>691</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11758,7 +11737,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>508</v>
+        <v>322</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -11767,13 +11746,13 @@
         <v>4213</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>616</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -11782,13 +11761,13 @@
         <v>4912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>694</v>
+        <v>423</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>696</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11803,10 +11782,10 @@
         <v>129381</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>698</v>
+        <v>202</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -11818,13 +11797,13 @@
         <v>250679</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>537</v>
+        <v>691</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="M37" s="7">
         <v>393</v>
@@ -11833,13 +11812,13 @@
         <v>380060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11895,7 +11874,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -11913,7 +11892,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>256</v>
+        <v>592</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11928,7 +11907,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>704</v>
+        <v>563</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11943,7 +11922,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11958,13 +11937,13 @@
         <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>642</v>
+        <v>562</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11973,13 +11952,13 @@
         <v>614</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>707</v>
+        <v>74</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -11988,13 +11967,13 @@
         <v>774</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12009,13 +11988,13 @@
         <v>709</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>269</v>
+        <v>700</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>215</v>
+        <v>631</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -12024,13 +12003,13 @@
         <v>6762</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -12039,13 +12018,13 @@
         <v>7471</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>485</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>343</v>
+        <v>592</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12060,10 +12039,10 @@
         <v>169059</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>22</v>
@@ -12075,13 +12054,13 @@
         <v>215666</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="M42" s="7">
         <v>568</v>
@@ -12090,13 +12069,13 @@
         <v>384725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>719</v>
+        <v>208</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12164,13 +12143,13 @@
         <v>2275</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>335</v>
+        <v>182</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -12182,10 +12161,10 @@
         <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
@@ -12194,13 +12173,13 @@
         <v>14797</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>523</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>704</v>
+        <v>563</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12215,13 +12194,13 @@
         <v>3274</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
@@ -12230,13 +12209,13 @@
         <v>7856</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="M45" s="7">
         <v>19</v>
@@ -12245,13 +12224,13 @@
         <v>11130</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12266,13 +12245,13 @@
         <v>13606</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>191</v>
+        <v>470</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>726</v>
+        <v>594</v>
       </c>
       <c r="H46" s="7">
         <v>78</v>
@@ -12281,13 +12260,13 @@
         <v>43496</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>719</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="M46" s="7">
         <v>98</v>
@@ -12296,13 +12275,13 @@
         <v>57102</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12317,13 +12296,13 @@
         <v>677198</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="H47" s="7">
         <v>1592</v>
@@ -12332,13 +12311,13 @@
         <v>961952</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="M47" s="7">
         <v>2588</v>
@@ -12347,13 +12326,13 @@
         <v>1639150</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12409,7 +12388,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F7E1A6F-2AAE-4EFD-8181-CC70945AC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4C1409-3A70-4386-BC17-E83A89BE520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4550A172-C6F0-42C5-9CCC-6490884613A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{694CA969-5C84-4B50-A453-25CB841E38C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="748">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,14%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,2058 +137,2115 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
@@ -2198,9 +2255,6 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
     <t>5,52%</t>
   </si>
   <si>
@@ -2216,13 +2270,7 @@
     <t>97,25%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
     <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
   </si>
   <si>
     <t>95,58%</t>
@@ -2646,7 +2694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10CE81D-4E28-4DB8-A57B-A8A76BE1260D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD4136E-8E19-4D4A-AE59-C5085C3612BF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4175,10 +4223,10 @@
         <v>126</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4187,13 +4235,13 @@
         <v>6532</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +4256,10 @@
         <v>45304</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -4223,13 +4271,13 @@
         <v>65669</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -4238,13 +4286,13 @@
         <v>110974</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4348,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4312,13 +4360,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4327,13 +4375,13 @@
         <v>897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4342,13 +4390,13 @@
         <v>1735</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4378,13 +4426,13 @@
         <v>1124</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -4393,13 +4441,13 @@
         <v>1124</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -4429,13 +4477,13 @@
         <v>1933</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4444,13 +4492,13 @@
         <v>1933</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,10 +4513,10 @@
         <v>105090</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -4480,13 +4528,13 @@
         <v>113168</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M37" s="7">
         <v>220</v>
@@ -4495,13 +4543,13 @@
         <v>218257</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4605,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4584,13 +4632,13 @@
         <v>1201</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -4599,13 +4647,13 @@
         <v>1201</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4689,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4656,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4719,13 @@
         <v>3125</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -4686,13 +4734,13 @@
         <v>6912</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -4701,13 +4749,13 @@
         <v>10037</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4770,13 @@
         <v>108768</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="H42" s="7">
         <v>137</v>
@@ -4737,13 +4785,13 @@
         <v>145112</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M42" s="7">
         <v>250</v>
@@ -4752,13 +4800,13 @@
         <v>253880</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4874,13 @@
         <v>838</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -4847,7 +4895,7 @@
         <v>183</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M44" s="7">
         <v>6</v>
@@ -4856,13 +4904,13 @@
         <v>5175</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>183</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4925,13 @@
         <v>1699</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4892,13 +4940,13 @@
         <v>5332</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M45" s="7">
         <v>7</v>
@@ -4907,13 +4955,13 @@
         <v>7030</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4976,13 @@
         <v>9359</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
@@ -4943,13 +4991,13 @@
         <v>24115</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M46" s="7">
         <v>32</v>
@@ -4958,13 +5006,13 @@
         <v>33474</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5027,13 @@
         <v>490570</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H47" s="7">
         <v>629</v>
@@ -4994,13 +5042,13 @@
         <v>643059</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M47" s="7">
         <v>1139</v>
@@ -5009,13 +5057,13 @@
         <v>1133629</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5119,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5095,7 +5143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E370D03B-4F25-45CC-999E-43BA3124D451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E13716-B747-475A-9754-E48134DC97C1}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,7 +5160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5217,39 +5265,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,39 +5310,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,39 +5355,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,39 +5400,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,39 +5445,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5494,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5461,13 +5509,13 @@
         <v>2437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5476,13 +5524,13 @@
         <v>4567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5512,13 +5560,13 @@
         <v>3179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5527,13 +5575,13 @@
         <v>3179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5563,13 +5611,13 @@
         <v>3283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5578,13 +5626,13 @@
         <v>3283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,10 +5647,10 @@
         <v>77073</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -5614,13 +5662,13 @@
         <v>93194</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5629,13 +5677,13 @@
         <v>170266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5751,13 @@
         <v>2988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5718,13 +5766,13 @@
         <v>4395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5733,13 +5781,13 @@
         <v>7382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5802,13 @@
         <v>1027</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -5775,7 +5823,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -5784,13 +5832,13 @@
         <v>3189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5853,13 @@
         <v>1049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5820,13 +5868,13 @@
         <v>3235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5835,13 +5883,13 @@
         <v>4284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5904,13 @@
         <v>50679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5871,13 +5919,13 @@
         <v>70176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5886,13 +5934,13 @@
         <v>120855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +6014,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5996,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6029,10 +6077,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -6041,13 +6089,13 @@
         <v>3347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6110,13 @@
         <v>4154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6077,13 +6125,13 @@
         <v>5492</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -6092,13 +6140,13 @@
         <v>9647</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6161,13 @@
         <v>104154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>121</v>
@@ -6128,13 +6176,13 @@
         <v>125629</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -6143,13 +6191,13 @@
         <v>229784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6238,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6274,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6283,13 +6331,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6298,13 +6346,13 @@
         <v>996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6367,13 @@
         <v>2257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6334,13 +6382,13 @@
         <v>4084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6349,13 +6397,13 @@
         <v>6342</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,10 +6418,10 @@
         <v>29355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -6385,13 +6433,13 @@
         <v>44775</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M27" s="7">
         <v>69</v>
@@ -6400,13 +6448,13 @@
         <v>74130</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +6528,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6489,13 +6537,13 @@
         <v>2156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6504,13 +6552,13 @@
         <v>2156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6573,13 @@
         <v>1057</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6540,13 +6588,13 @@
         <v>2187</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6555,13 +6603,13 @@
         <v>3244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6624,13 @@
         <v>1075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6591,13 +6639,13 @@
         <v>5263</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -6606,13 +6654,13 @@
         <v>6339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,10 +6675,10 @@
         <v>49624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -6642,13 +6690,13 @@
         <v>60606</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M32" s="7">
         <v>108</v>
@@ -6657,13 +6705,13 @@
         <v>110230</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6767,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6731,13 +6779,13 @@
         <v>1032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6746,13 +6794,13 @@
         <v>1080</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6761,13 +6809,13 @@
         <v>2113</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6830,13 @@
         <v>2269</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6812,13 +6860,13 @@
         <v>2269</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6881,13 @@
         <v>2980</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -6848,13 +6896,13 @@
         <v>8783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -6863,13 +6911,13 @@
         <v>11762</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6932,13 @@
         <v>105982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H37" s="7">
         <v>120</v>
@@ -6899,13 +6947,13 @@
         <v>132099</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M37" s="7">
         <v>215</v>
@@ -6914,13 +6962,13 @@
         <v>238082</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,7 +7024,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6994,7 +7042,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -7003,13 +7051,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7018,13 +7066,13 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7093,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7054,13 +7102,13 @@
         <v>2153</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7069,13 +7117,13 @@
         <v>2153</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>152</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7138,13 @@
         <v>3352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -7105,13 +7153,13 @@
         <v>6864</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -7120,13 +7168,13 @@
         <v>10215</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7189,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H42" s="7">
         <v>139</v>
@@ -7156,13 +7204,13 @@
         <v>150922</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M42" s="7">
         <v>241</v>
@@ -7171,13 +7219,13 @@
         <v>267224</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7293,13 @@
         <v>7249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7260,13 +7308,13 @@
         <v>14546</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -7275,13 +7323,13 @@
         <v>21794</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7344,13 @@
         <v>4353</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -7311,13 +7359,13 @@
         <v>14023</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>393</v>
+        <v>72</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -7326,13 +7374,13 @@
         <v>18376</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7395,13 @@
         <v>14866</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7362,13 +7410,13 @@
         <v>37005</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -7377,13 +7425,13 @@
         <v>51871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7446,13 @@
         <v>533169</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H47" s="7">
         <v>635</v>
@@ -7413,13 +7461,13 @@
         <v>677401</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M47" s="7">
         <v>1115</v>
@@ -7428,13 +7476,13 @@
         <v>1210570</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,7 +7538,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7514,7 +7562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E849DE16-6CC8-454E-9F37-5E0167BB6D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA58A68-D695-49BE-B2B6-8E5DED4493FC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7531,7 +7579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7644,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7659,7 +7707,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7674,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7737,13 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7710,7 +7758,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7725,7 +7773,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7788,13 @@
         <v>791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7755,13 +7803,13 @@
         <v>3454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7770,13 +7818,13 @@
         <v>4246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,10 +7839,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7806,28 +7854,28 @@
         <v>45937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>83240</v>
+        <v>83239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7917,7 @@
         <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -7901,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7910,13 +7958,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7931,7 +7979,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +8000,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7967,7 +8015,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7982,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +8045,13 @@
         <v>880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -8012,13 +8060,13 @@
         <v>9143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -8027,13 +8075,13 @@
         <v>10022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,10 +8096,10 @@
         <v>86415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -8063,13 +8111,13 @@
         <v>104738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>178</v>
+        <v>451</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -8078,13 +8126,13 @@
         <v>191154</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,7 +8206,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8167,13 +8215,13 @@
         <v>2011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8182,13 +8230,13 @@
         <v>2011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -8218,13 +8266,13 @@
         <v>2467</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8233,13 +8281,13 @@
         <v>2467</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>454</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8302,13 @@
         <v>2817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8275,7 +8323,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -8284,13 +8332,13 @@
         <v>2817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8353,13 @@
         <v>60729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -8320,13 +8368,13 @@
         <v>75420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -8335,13 +8383,13 @@
         <v>136149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8445,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8508,13 @@
         <v>845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8475,13 +8523,13 @@
         <v>969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8490,13 +8538,13 @@
         <v>1813</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8559,13 @@
         <v>827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8541,13 +8589,13 @@
         <v>827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,10 +8610,10 @@
         <v>63040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -8577,10 +8625,10 @@
         <v>90605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>22</v>
@@ -8592,13 +8640,13 @@
         <v>153644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8687,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8702,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8732,13 +8780,13 @@
         <v>1187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8747,13 +8795,13 @@
         <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8816,13 @@
         <v>799</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8783,13 +8831,13 @@
         <v>2344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8798,13 +8846,13 @@
         <v>3143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,10 +8867,10 @@
         <v>41281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -8834,13 +8882,13 @@
         <v>47001</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M27" s="7">
         <v>89</v>
@@ -8849,13 +8897,13 @@
         <v>88282</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8938,13 +8986,13 @@
         <v>4907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -8953,13 +9001,13 @@
         <v>4907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>502</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +9022,13 @@
         <v>1651</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8995,7 +9043,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -9004,13 +9052,13 @@
         <v>1651</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,13 +9073,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -9046,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -9055,13 +9103,13 @@
         <v>3341</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,13 +9124,13 @@
         <v>46028</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -9091,13 +9139,13 @@
         <v>59907</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -9106,13 +9154,13 @@
         <v>105935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,7 +9216,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9180,13 +9228,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>129</v>
+        <v>525</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>140</v>
+        <v>526</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9195,13 +9243,13 @@
         <v>1271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9210,13 +9258,13 @@
         <v>3967</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>528</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,10 +9282,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>256</v>
+        <v>530</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9252,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9261,13 +9309,13 @@
         <v>2808</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>525</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9282,13 +9330,13 @@
         <v>890</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -9297,13 +9345,13 @@
         <v>9799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>103</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -9312,13 +9360,13 @@
         <v>10689</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>534</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,13 +9381,13 @@
         <v>105790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H37" s="7">
         <v>116</v>
@@ -9348,13 +9396,13 @@
         <v>136555</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9363,13 +9411,13 @@
         <v>242345</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>305</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9425,7 +9473,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9443,7 +9491,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9458,7 +9506,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9473,7 +9521,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9536,13 @@
         <v>809</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9509,7 +9557,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -9518,13 +9566,13 @@
         <v>809</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>58</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,13 +9587,13 @@
         <v>2439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9557,10 +9605,10 @@
         <v>122</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>249</v>
+        <v>554</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -9569,13 +9617,13 @@
         <v>7405</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>523</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>313</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,13 +9638,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9605,13 +9653,13 @@
         <v>171331</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>360</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M42" s="7">
         <v>276</v>
@@ -9620,13 +9668,13 @@
         <v>302251</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9694,13 +9742,13 @@
         <v>2696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9712,10 +9760,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>561</v>
+        <v>230</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -9724,13 +9772,13 @@
         <v>12232</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>562</v>
+        <v>186</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9745,13 +9793,13 @@
         <v>6915</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>192</v>
+        <v>436</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>564</v>
+        <v>199</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -9760,10 +9808,10 @@
         <v>4623</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>183</v>
+        <v>571</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>82</v>
@@ -9775,10 +9823,10 @@
         <v>11538</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>80</v>
@@ -9796,13 +9844,13 @@
         <v>10210</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>146</v>
+        <v>495</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>566</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>26</v>
@@ -9811,13 +9859,13 @@
         <v>32280</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>109</v>
+        <v>574</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -9826,13 +9874,13 @@
         <v>42491</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>297</v>
+        <v>577</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9847,13 +9895,13 @@
         <v>571506</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>465</v>
+        <v>580</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H47" s="7">
         <v>618</v>
@@ -9862,13 +9910,13 @@
         <v>731493</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>379</v>
+        <v>584</v>
       </c>
       <c r="M47" s="7">
         <v>1223</v>
@@ -9877,13 +9925,13 @@
         <v>1302999</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9939,7 +9987,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -9963,7 +10011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C75AF60-5ED2-45A0-A60D-2FAE843200DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C69E54-663F-4D0A-BE3D-2548734FE797}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9980,7 +10028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10093,7 +10141,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10108,7 +10156,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10123,7 +10171,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10144,7 +10192,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -10153,13 +10201,13 @@
         <v>2234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -10168,13 +10216,13 @@
         <v>2234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>469</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,7 +10243,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -10204,13 +10252,13 @@
         <v>2231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>495</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -10219,10 +10267,10 @@
         <v>2231</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>99</v>
@@ -10243,7 +10291,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10255,13 +10303,13 @@
         <v>57755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="M7" s="7">
         <v>208</v>
@@ -10270,13 +10318,13 @@
         <v>109675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10350,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -10362,10 +10410,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -10374,13 +10422,13 @@
         <v>4207</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>592</v>
+        <v>398</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10395,13 +10443,13 @@
         <v>882</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>607</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>484</v>
+        <v>608</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -10410,13 +10458,13 @@
         <v>1170</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>594</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -10425,13 +10473,13 @@
         <v>2052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>595</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,13 +10494,13 @@
         <v>5760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -10461,13 +10509,13 @@
         <v>10465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -10476,13 +10524,13 @@
         <v>16224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>615</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10497,13 +10545,13 @@
         <v>79672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="H12" s="7">
         <v>201</v>
@@ -10512,13 +10560,13 @@
         <v>125515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
@@ -10527,13 +10575,13 @@
         <v>205188</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>609</v>
+        <v>178</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10601,7 +10649,7 @@
         <v>684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>625</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
@@ -10616,13 +10664,13 @@
         <v>1672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>627</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -10631,13 +10679,13 @@
         <v>2356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>612</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>628</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>613</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10652,13 +10700,13 @@
         <v>1472</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -10667,13 +10715,13 @@
         <v>424</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -10682,13 +10730,13 @@
         <v>1896</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10703,13 +10751,13 @@
         <v>3560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -10718,13 +10766,13 @@
         <v>7706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>633</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -10733,13 +10781,13 @@
         <v>11266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10754,10 +10802,10 @@
         <v>71886</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>64</v>
@@ -10769,13 +10817,13 @@
         <v>85148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
@@ -10784,13 +10832,13 @@
         <v>157034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10864,7 +10912,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -10873,13 +10921,13 @@
         <v>929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -10888,13 +10936,13 @@
         <v>929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10915,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -10924,13 +10972,13 @@
         <v>904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>649</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -10939,13 +10987,13 @@
         <v>904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10966,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -10975,13 +11023,13 @@
         <v>2903</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>401</v>
+        <v>652</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -10990,13 +11038,13 @@
         <v>2903</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>184</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11014,7 +11062,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11026,13 +11074,13 @@
         <v>105720</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -11041,13 +11089,13 @@
         <v>184525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11136,7 +11184,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -11151,7 +11199,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>395</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11181,13 +11229,13 @@
         <v>499</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -11196,7 +11244,7 @@
         <v>499</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -11217,13 +11265,13 @@
         <v>1696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -11232,13 +11280,13 @@
         <v>4499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>665</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -11247,13 +11295,13 @@
         <v>6195</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11268,13 +11316,13 @@
         <v>36068</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="H27" s="7">
         <v>153</v>
@@ -11283,13 +11331,13 @@
         <v>60107</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>308</v>
+        <v>676</v>
       </c>
       <c r="M27" s="7">
         <v>220</v>
@@ -11298,13 +11346,13 @@
         <v>96173</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11372,13 +11420,13 @@
         <v>1591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -11387,13 +11435,13 @@
         <v>3775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -11402,13 +11450,13 @@
         <v>5366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11429,7 +11477,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11444,7 +11492,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11459,7 +11507,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11474,13 +11522,13 @@
         <v>1183</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>664</v>
+        <v>281</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>665</v>
+        <v>230</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>666</v>
+        <v>475</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -11489,13 +11537,13 @@
         <v>4718</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -11504,13 +11552,13 @@
         <v>5901</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11525,13 +11573,13 @@
         <v>60409</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="H32" s="7">
         <v>154</v>
@@ -11540,13 +11588,13 @@
         <v>61361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -11555,13 +11603,13 @@
         <v>121771</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11617,7 +11665,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11635,7 +11683,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -11644,13 +11692,13 @@
         <v>1939</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -11659,7 +11707,7 @@
         <v>1939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
@@ -11680,13 +11728,13 @@
         <v>761</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>665</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -11695,13 +11743,13 @@
         <v>2012</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -11710,13 +11758,13 @@
         <v>2772</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>684</v>
+        <v>526</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>278</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11731,13 +11779,13 @@
         <v>698</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>322</v>
+        <v>705</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -11746,13 +11794,13 @@
         <v>4213</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -11761,13 +11809,13 @@
         <v>4912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>423</v>
+        <v>708</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11782,10 +11830,10 @@
         <v>129381</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -11797,13 +11845,13 @@
         <v>250679</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>690</v>
+        <v>291</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="M37" s="7">
         <v>393</v>
@@ -11812,13 +11860,13 @@
         <v>380060</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11874,7 +11922,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -11892,7 +11940,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>592</v>
+        <v>398</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11907,7 +11955,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>563</v>
+        <v>716</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11922,7 +11970,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11937,13 +11985,13 @@
         <v>159</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -11952,7 +12000,7 @@
         <v>614</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
@@ -11967,13 +12015,13 @@
         <v>774</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11988,13 +12036,13 @@
         <v>709</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -12003,13 +12051,13 @@
         <v>6762</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
@@ -12018,13 +12066,13 @@
         <v>7471</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>592</v>
+        <v>398</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12039,10 +12087,10 @@
         <v>169059</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>22</v>
@@ -12054,13 +12102,13 @@
         <v>215666</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="M42" s="7">
         <v>568</v>
@@ -12069,13 +12117,13 @@
         <v>384725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>208</v>
+        <v>732</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12143,13 +12191,13 @@
         <v>2275</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -12158,13 +12206,13 @@
         <v>12522</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>713</v>
+        <v>554</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>714</v>
+        <v>445</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
@@ -12173,13 +12221,13 @@
         <v>14797</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>563</v>
+        <v>716</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>715</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12194,13 +12242,13 @@
         <v>3274</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
@@ -12209,13 +12257,13 @@
         <v>7856</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>715</v>
+        <v>257</v>
       </c>
       <c r="M45" s="7">
         <v>19</v>
@@ -12224,13 +12272,13 @@
         <v>11130</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>186</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12245,13 +12293,13 @@
         <v>13606</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>594</v>
+        <v>371</v>
       </c>
       <c r="H46" s="7">
         <v>78</v>
@@ -12260,13 +12308,13 @@
         <v>43496</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="M46" s="7">
         <v>98</v>
@@ -12275,13 +12323,13 @@
         <v>57102</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12296,13 +12344,13 @@
         <v>677198</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>725</v>
+        <v>313</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="H47" s="7">
         <v>1592</v>
@@ -12311,13 +12359,13 @@
         <v>961952</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>727</v>
+        <v>158</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="M47" s="7">
         <v>2588</v>
@@ -12326,13 +12374,13 @@
         <v>1639150</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12388,7 +12436,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9E762F-1153-40DC-A769-72FAE45F84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{606123E2-160C-4929-9EA4-84A44B855396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{03358E5A-64A2-4D26-ABD1-8F02CF516B06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B35EBDD8-EDFE-4FD9-8A5F-EF95EDFD729C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="745">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -677,7 +677,64 @@
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -842,1420 +899,1381 @@
     <t>93,6%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D39BC0-0A56-42C5-A251-26C540E540A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B1AB23-28E0-4C48-A66C-31B76C9ADEE6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5116,7 +5134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BBD8B-BDEF-4DD9-B488-259A308674BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B4A76B-85F8-4605-A505-08E694BD5E60}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,12 +5254,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>212</v>
@@ -5249,28 +5269,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,41 +5305,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>212</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2174</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2174</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,43 +5354,49 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>986</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3343</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4328</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,43 +5405,49 @@
         <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43295</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43377</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="N7" s="7">
+        <v>86673</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,43 +5456,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44281</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="7">
+        <v>48894</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N8" s="7">
+        <v>93175</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5515,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5482,13 +5530,13 @@
         <v>2437</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5497,13 +5545,13 @@
         <v>4567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5533,13 +5581,13 @@
         <v>3179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5548,13 +5596,13 @@
         <v>3179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5623,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5584,13 +5632,13 @@
         <v>3283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5599,13 +5647,13 @@
         <v>3283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,10 +5668,10 @@
         <v>77073</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -5635,13 +5683,13 @@
         <v>93194</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5650,13 +5698,13 @@
         <v>170266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5772,13 @@
         <v>2988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5739,13 +5787,13 @@
         <v>4395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -5754,13 +5802,13 @@
         <v>7382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5823,13 @@
         <v>1027</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -5796,7 +5844,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -5805,13 +5853,13 @@
         <v>3189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5874,13 @@
         <v>1049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5841,13 +5889,13 @@
         <v>3235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5856,13 +5904,13 @@
         <v>4284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5925,13 @@
         <v>50679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5892,13 +5940,13 @@
         <v>70176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5907,13 +5955,13 @@
         <v>120855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6002,7 +6050,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6017,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,37 +6086,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>3347</v>
+        <v>1172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>3347</v>
+        <v>1172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,49 +6125,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>4154</v>
+        <v>3169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2150</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M21" s="7">
         <v>5</v>
       </c>
-      <c r="I21" s="7">
-        <v>5492</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M21" s="7">
-        <v>9</v>
-      </c>
       <c r="N21" s="7">
-        <v>9647</v>
+        <v>5318</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,49 +6176,49 @@
         <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>104154</v>
+        <v>60859</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>125629</v>
+        <v>82252</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="N22" s="7">
-        <v>229784</v>
+        <v>143111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,10 +6227,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>24</v>
@@ -6194,10 +6242,10 @@
         <v>24</v>
       </c>
       <c r="H23" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I23" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>24</v>
@@ -6209,10 +6257,10 @@
         <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N23" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -6244,7 +6292,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6259,7 +6307,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6295,7 +6343,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6304,13 +6352,13 @@
         <v>996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -6319,13 +6367,13 @@
         <v>996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6388,13 @@
         <v>2257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6355,13 +6403,13 @@
         <v>4084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6370,13 +6418,13 @@
         <v>6342</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,10 +6439,10 @@
         <v>29355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -6406,13 +6454,13 @@
         <v>44775</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M27" s="7">
         <v>69</v>
@@ -6421,13 +6469,13 @@
         <v>74130</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,7 +6549,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6510,13 +6558,13 @@
         <v>2156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6525,13 +6573,13 @@
         <v>2156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6594,13 @@
         <v>1057</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6561,13 +6609,13 @@
         <v>2187</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -6576,10 +6624,10 @@
         <v>3244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>36</v>
@@ -6597,7 +6645,7 @@
         <v>1075</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -6612,13 +6660,13 @@
         <v>5263</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -6627,13 +6675,13 @@
         <v>6339</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,10 +6696,10 @@
         <v>49624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -6663,13 +6711,13 @@
         <v>60606</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="M32" s="7">
         <v>108</v>
@@ -6678,13 +6726,13 @@
         <v>110230</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6800,13 @@
         <v>1032</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6767,7 +6815,7 @@
         <v>1080</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
@@ -6782,13 +6830,13 @@
         <v>2113</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6851,13 @@
         <v>2269</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6833,13 +6881,13 @@
         <v>2269</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,10 +6902,10 @@
         <v>2980</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>104</v>
@@ -6869,13 +6917,13 @@
         <v>8783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -6884,13 +6932,13 @@
         <v>11762</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6953,13 @@
         <v>105982</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="H37" s="7">
         <v>120</v>
@@ -6920,10 +6968,10 @@
         <v>132099</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>206</v>
@@ -6935,13 +6983,13 @@
         <v>238082</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7063,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -7024,13 +7072,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7039,13 +7087,13 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7114,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -7075,13 +7123,13 @@
         <v>2153</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -7090,13 +7138,13 @@
         <v>2153</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7159,13 @@
         <v>3352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -7126,13 +7174,13 @@
         <v>6864</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -7141,13 +7189,13 @@
         <v>10215</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7210,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H42" s="7">
         <v>139</v>
@@ -7177,13 +7225,13 @@
         <v>150922</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="M42" s="7">
         <v>241</v>
@@ -7192,13 +7240,13 @@
         <v>267224</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7314,13 @@
         <v>7249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7281,13 +7329,13 @@
         <v>14546</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="M44" s="7">
         <v>20</v>
@@ -7296,10 +7344,10 @@
         <v>21794</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>56</v>
@@ -7320,7 +7368,7 @@
         <v>143</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>43</v>
@@ -7332,13 +7380,13 @@
         <v>14023</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>189</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -7347,13 +7395,13 @@
         <v>18376</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7416,13 @@
         <v>14866</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="H46" s="7">
         <v>34</v>
@@ -7383,13 +7431,13 @@
         <v>37005</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -7398,13 +7446,13 @@
         <v>51871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7467,13 @@
         <v>533169</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H47" s="7">
         <v>635</v>
@@ -7434,13 +7482,13 @@
         <v>677401</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M47" s="7">
         <v>1115</v>
@@ -7449,13 +7497,13 @@
         <v>1210570</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,7 +7583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CFA0C6-FA6D-4FCA-8F10-75EA05729F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930A85F5-89BA-4DE0-A3F2-6D49001BA68F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7552,7 +7600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7665,7 +7713,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7680,7 +7728,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7695,7 +7743,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,7 +7764,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7731,7 +7779,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7746,7 +7794,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7809,13 @@
         <v>791</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -7776,13 +7824,13 @@
         <v>3454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7791,13 +7839,13 @@
         <v>4246</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>80</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,10 +7860,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7827,13 +7875,13 @@
         <v>45937</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -7842,13 +7890,13 @@
         <v>83240</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7931,13 +7979,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7952,7 +8000,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,7 +8021,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7988,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8003,7 +8051,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8066,13 @@
         <v>880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -8033,13 +8081,13 @@
         <v>9143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -8048,13 +8096,13 @@
         <v>10022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,10 +8117,10 @@
         <v>86415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>22</v>
@@ -8084,10 +8132,10 @@
         <v>104738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>51</v>
@@ -8099,13 +8147,13 @@
         <v>191154</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8236,13 @@
         <v>2011</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8203,13 +8251,13 @@
         <v>2011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8287,13 @@
         <v>2467</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8254,13 +8302,13 @@
         <v>2467</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8323,13 @@
         <v>2817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8296,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -8305,13 +8353,13 @@
         <v>2817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8374,13 @@
         <v>60729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -8341,13 +8389,13 @@
         <v>75420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -8356,13 +8404,13 @@
         <v>136149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,7 +8484,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8466,7 +8514,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8529,13 @@
         <v>845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -8496,13 +8544,13 @@
         <v>969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8517,7 +8565,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8532,13 +8580,13 @@
         <v>827</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8562,7 +8610,7 @@
         <v>827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -8583,10 +8631,10 @@
         <v>63040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -8598,10 +8646,10 @@
         <v>90605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>22</v>
@@ -8613,13 +8661,13 @@
         <v>153644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8708,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8723,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8744,7 +8792,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8753,13 +8801,13 @@
         <v>1187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8768,13 +8816,13 @@
         <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,7 +8843,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8804,13 +8852,13 @@
         <v>2344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8819,13 +8867,13 @@
         <v>3143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,10 +8888,10 @@
         <v>41281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -8855,13 +8903,13 @@
         <v>47001</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M27" s="7">
         <v>89</v>
@@ -8873,10 +8921,10 @@
         <v>155</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,7 +8998,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8959,13 +9007,13 @@
         <v>4907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -8974,13 +9022,13 @@
         <v>4907</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,7 +9049,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9016,7 +9064,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -9025,13 +9073,13 @@
         <v>1651</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9046,13 +9094,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -9067,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -9076,13 +9124,13 @@
         <v>3341</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,10 +9148,10 @@
         <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -9112,13 +9160,13 @@
         <v>59907</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>513</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -9127,13 +9175,13 @@
         <v>105935</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9201,13 +9249,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -9216,13 +9264,13 @@
         <v>1271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -9231,13 +9279,13 @@
         <v>3967</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,7 +9306,7 @@
         <v>143</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9273,7 +9321,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -9282,13 +9330,13 @@
         <v>2808</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,7 +9357,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -9318,13 +9366,13 @@
         <v>9799</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -9333,13 +9381,13 @@
         <v>10689</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9402,13 @@
         <v>105790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
         <v>116</v>
@@ -9369,13 +9417,13 @@
         <v>136555</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9384,13 +9432,13 @@
         <v>242345</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9464,7 +9512,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9479,7 +9527,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9494,7 +9542,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,7 +9563,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9530,7 +9578,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -9539,7 +9587,7 @@
         <v>809</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
@@ -9560,13 +9608,13 @@
         <v>2439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -9578,10 +9626,10 @@
         <v>121</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -9593,10 +9641,10 @@
         <v>144</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9611,13 +9659,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -9626,13 +9674,13 @@
         <v>171331</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="M42" s="7">
         <v>276</v>
@@ -9641,13 +9689,13 @@
         <v>302251</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,13 +9763,13 @@
         <v>2696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -9733,10 +9781,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -9745,13 +9793,13 @@
         <v>12232</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,13 +9814,13 @@
         <v>6915</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -9784,10 +9832,10 @@
         <v>44</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
@@ -9799,10 +9847,10 @@
         <v>186</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,13 +9865,13 @@
         <v>10210</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H46" s="7">
         <v>26</v>
@@ -9832,13 +9880,13 @@
         <v>32280</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="M46" s="7">
         <v>37</v>
@@ -9847,13 +9895,13 @@
         <v>42491</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9868,10 +9916,10 @@
         <v>571506</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>88</v>
@@ -9883,13 +9931,13 @@
         <v>731493</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="M47" s="7">
         <v>1223</v>
@@ -9898,13 +9946,13 @@
         <v>1302999</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9984,7 +10032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB0014B-BE11-48A4-9820-5769AA87314E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AB0282-F319-4921-9E43-01C9207D1714}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10001,7 +10049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10114,7 +10162,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10129,7 +10177,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -10144,7 +10192,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10165,37 +10213,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>595</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>565</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10216,37 +10264,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2231</v>
+        <v>2259</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>583</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>186</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>597</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>2231</v>
+        <v>2259</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>586</v>
+        <v>404</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>587</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10258,13 +10306,13 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10273,31 +10321,31 @@
         <v>125</v>
       </c>
       <c r="I7" s="7">
-        <v>57755</v>
+        <v>58919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M7" s="7">
         <v>208</v>
       </c>
       <c r="N7" s="7">
-        <v>109675</v>
+        <v>114820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>594</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10309,7 +10357,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -10324,7 +10372,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -10339,7 +10387,7 @@
         <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -10371,37 +10419,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>4207</v>
+        <v>3539</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>578</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>4207</v>
+        <v>3539</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10413,46 +10461,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>546</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1170</v>
+        <v>1089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2052</v>
+        <v>1921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10464,46 +10512,46 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5760</v>
+        <v>5314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>583</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>10465</v>
+        <v>9357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>613</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>16224</v>
+        <v>14671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>604</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10515,46 +10563,46 @@
         <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>79672</v>
+        <v>74563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="H12" s="7">
         <v>201</v>
       </c>
       <c r="I12" s="7">
-        <v>125515</v>
+        <v>115006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>621</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="M12" s="7">
         <v>289</v>
       </c>
       <c r="N12" s="7">
-        <v>205188</v>
+        <v>189568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>205</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10566,7 +10614,7 @@
         <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -10581,7 +10629,7 @@
         <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>24</v>
@@ -10596,7 +10644,7 @@
         <v>318</v>
       </c>
       <c r="N13" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>24</v>
@@ -10619,46 +10667,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>568</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1672</v>
+        <v>1523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>627</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2356</v>
+        <v>2158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10670,22 +10718,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1472</v>
+        <v>1376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>201</v>
+        <v>595</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>164</v>
@@ -10694,22 +10742,22 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>1896</v>
+        <v>1767</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10721,46 +10769,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>3560</v>
+        <v>3371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>636</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>7706</v>
+        <v>6933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>625</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>11266</v>
+        <v>10304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>629</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10772,46 +10820,46 @@
         <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>71886</v>
+        <v>68107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="H17" s="7">
         <v>152</v>
       </c>
       <c r="I17" s="7">
-        <v>85148</v>
+        <v>78578</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="M17" s="7">
         <v>265</v>
       </c>
       <c r="N17" s="7">
-        <v>157034</v>
+        <v>146685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10823,7 +10871,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>24</v>
@@ -10838,7 +10886,7 @@
         <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>24</v>
@@ -10853,7 +10901,7 @@
         <v>291</v>
       </c>
       <c r="N18" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>24</v>
@@ -10885,37 +10933,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>649</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>929</v>
+        <v>858</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>639</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>929</v>
+        <v>858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>650</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10936,37 +10984,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>649</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>904</v>
+        <v>843</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>641</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>652</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>904</v>
+        <v>843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10987,37 +11035,37 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>649</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>2903</v>
+        <v>2744</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>643</v>
+        <v>358</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>653</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>2903</v>
+        <v>2744</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11029,13 +11077,13 @@
         <v>118</v>
       </c>
       <c r="D22" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11044,31 +11092,31 @@
         <v>245</v>
       </c>
       <c r="I22" s="7">
-        <v>105720</v>
+        <v>99191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
       </c>
       <c r="N22" s="7">
-        <v>184525</v>
+        <v>173858</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11080,7 +11128,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>24</v>
@@ -11095,7 +11143,7 @@
         <v>256</v>
       </c>
       <c r="I23" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>24</v>
@@ -11110,7 +11158,7 @@
         <v>374</v>
       </c>
       <c r="N23" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -11172,7 +11220,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11199,31 +11247,31 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>653</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11235,46 +11283,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1696</v>
+        <v>1503</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>4499</v>
+        <v>3976</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>6195</v>
+        <v>5479</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>659</v>
+        <v>551</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11286,46 +11334,46 @@
         <v>67</v>
       </c>
       <c r="D27" s="7">
-        <v>36068</v>
+        <v>32790</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>663</v>
+        <v>203</v>
       </c>
       <c r="H27" s="7">
         <v>153</v>
       </c>
       <c r="I27" s="7">
-        <v>60107</v>
+        <v>54490</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="M27" s="7">
         <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>96173</v>
+        <v>87280</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>552</v>
+        <v>676</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>235</v>
+        <v>677</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>279</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11337,7 +11385,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="7">
-        <v>37764</v>
+        <v>34293</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>24</v>
@@ -11352,7 +11400,7 @@
         <v>164</v>
       </c>
       <c r="I28" s="7">
-        <v>65104</v>
+        <v>58899</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>24</v>
@@ -11367,7 +11415,7 @@
         <v>234</v>
       </c>
       <c r="N28" s="7">
-        <v>102867</v>
+        <v>93192</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>24</v>
@@ -11390,46 +11438,46 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>1591</v>
+        <v>1512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
       </c>
       <c r="I29" s="7">
-        <v>3775</v>
+        <v>3473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>679</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>5366</v>
+        <v>4985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>268</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11450,7 +11498,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11465,7 +11513,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11480,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11492,46 +11540,46 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>1183</v>
+        <v>1134</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>671</v>
+        <v>270</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
       </c>
       <c r="I31" s="7">
-        <v>4718</v>
+        <v>4455</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
       </c>
       <c r="N31" s="7">
-        <v>5901</v>
+        <v>5589</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11543,46 +11591,46 @@
         <v>128</v>
       </c>
       <c r="D32" s="7">
-        <v>60409</v>
+        <v>57615</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="H32" s="7">
         <v>154</v>
       </c>
       <c r="I32" s="7">
-        <v>61361</v>
+        <v>57331</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
       </c>
       <c r="N32" s="7">
-        <v>121771</v>
+        <v>114946</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>696</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>577</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11594,7 +11642,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>24</v>
@@ -11609,7 +11657,7 @@
         <v>177</v>
       </c>
       <c r="I33" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
@@ -11624,7 +11672,7 @@
         <v>312</v>
       </c>
       <c r="N33" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
@@ -11656,37 +11704,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>1939</v>
+        <v>1756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1939</v>
+        <v>1756</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>148</v>
+        <v>701</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>505</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11698,46 +11746,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2012</v>
+        <v>1871</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>688</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
       </c>
       <c r="N35" s="7">
-        <v>2772</v>
+        <v>2583</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>691</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11749,46 +11797,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>508</v>
+        <v>655</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
       </c>
       <c r="I36" s="7">
-        <v>4213</v>
+        <v>3863</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>705</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
       </c>
       <c r="N36" s="7">
-        <v>4912</v>
+        <v>4535</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>695</v>
+        <v>574</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>696</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11800,13 +11848,13 @@
         <v>166</v>
       </c>
       <c r="D37" s="7">
-        <v>129381</v>
+        <v>121871</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>698</v>
+        <v>395</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -11815,31 +11863,31 @@
         <v>227</v>
       </c>
       <c r="I37" s="7">
-        <v>250679</v>
+        <v>331691</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>537</v>
+        <v>710</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="M37" s="7">
         <v>393</v>
       </c>
       <c r="N37" s="7">
-        <v>380060</v>
+        <v>453562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11851,7 +11899,7 @@
         <v>168</v>
       </c>
       <c r="D38" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>24</v>
@@ -11866,7 +11914,7 @@
         <v>242</v>
       </c>
       <c r="I38" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>24</v>
@@ -11881,7 +11929,7 @@
         <v>410</v>
       </c>
       <c r="N38" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>24</v>
@@ -11913,7 +11961,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11928,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11943,7 +11991,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>617</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11955,46 +12003,46 @@
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>642</v>
+        <v>397</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>707</v>
+        <v>74</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>774</v>
+        <v>682</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>272</v>
+        <v>719</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12006,46 +12054,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>269</v>
+        <v>720</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>215</v>
+        <v>721</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>6762</v>
+        <v>4584</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>709</v>
+        <v>73</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="M41" s="7">
         <v>8</v>
       </c>
       <c r="N41" s="7">
-        <v>7471</v>
+        <v>5185</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>343</v>
+        <v>724</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12057,13 +12105,13 @@
         <v>233</v>
       </c>
       <c r="D42" s="7">
-        <v>169059</v>
+        <v>146321</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>22</v>
@@ -12072,31 +12120,31 @@
         <v>335</v>
       </c>
       <c r="I42" s="7">
-        <v>215666</v>
+        <v>181535</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="M42" s="7">
         <v>568</v>
       </c>
       <c r="N42" s="7">
-        <v>384725</v>
+        <v>327855</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12108,7 +12156,7 @@
         <v>235</v>
       </c>
       <c r="D43" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>24</v>
@@ -12123,7 +12171,7 @@
         <v>343</v>
       </c>
       <c r="I43" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>24</v>
@@ -12138,7 +12186,7 @@
         <v>578</v>
       </c>
       <c r="N43" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>24</v>
@@ -12161,46 +12209,46 @@
         <v>5</v>
       </c>
       <c r="D44" s="7">
-        <v>2275</v>
+        <v>2147</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>617</v>
+        <v>715</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
       </c>
       <c r="I44" s="7">
-        <v>12522</v>
+        <v>11149</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>689</v>
+        <v>486</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>671</v>
+        <v>465</v>
       </c>
       <c r="M44" s="7">
         <v>27</v>
       </c>
       <c r="N44" s="7">
-        <v>14797</v>
+        <v>13296</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>704</v>
+        <v>575</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>722</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12212,46 +12260,46 @@
         <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>3274</v>
+        <v>3078</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>723</v>
+        <v>31</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
       </c>
       <c r="I45" s="7">
-        <v>7856</v>
+        <v>7383</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>141</v>
+        <v>724</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>724</v>
+        <v>192</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>707</v>
+        <v>484</v>
       </c>
       <c r="M45" s="7">
         <v>19</v>
       </c>
       <c r="N45" s="7">
-        <v>11130</v>
+        <v>10461</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>225</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12263,46 +12311,46 @@
         <v>20</v>
       </c>
       <c r="D46" s="7">
-        <v>13606</v>
+        <v>12594</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>191</v>
+        <v>442</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="H46" s="7">
         <v>78</v>
       </c>
       <c r="I46" s="7">
-        <v>43496</v>
+        <v>38171</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>500</v>
+        <v>736</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>374</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="M46" s="7">
         <v>98</v>
       </c>
       <c r="N46" s="7">
-        <v>57102</v>
+        <v>50765</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>730</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12314,46 +12362,46 @@
         <v>996</v>
       </c>
       <c r="D47" s="7">
-        <v>677198</v>
+        <v>631836</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>733</v>
+        <v>53</v>
       </c>
       <c r="H47" s="7">
         <v>1592</v>
       </c>
       <c r="I47" s="7">
-        <v>961952</v>
+        <v>976739</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="M47" s="7">
         <v>2588</v>
       </c>
       <c r="N47" s="7">
-        <v>1639150</v>
+        <v>1608575</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>736</v>
+        <v>471</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12365,7 +12413,7 @@
         <v>1026</v>
       </c>
       <c r="D48" s="7">
-        <v>696353</v>
+        <v>649656</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>24</v>
@@ -12380,7 +12428,7 @@
         <v>1706</v>
       </c>
       <c r="I48" s="7">
-        <v>1025826</v>
+        <v>1033442</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>24</v>
@@ -12395,7 +12443,7 @@
         <v>2732</v>
       </c>
       <c r="N48" s="7">
-        <v>1722179</v>
+        <v>1683098</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>24</v>
